--- a/tst1.xlsx
+++ b/tst1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="9885" windowHeight="1365"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="9885" windowHeight="1365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="4" r:id="rId1"/>
@@ -20,12 +20,11 @@
     <sheet name="Struct9" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="344">
   <si>
     <t>int8</t>
   </si>
@@ -333,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aa=[1,2],bb=[3,4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aa=1,bb=2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,31 +344,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Map_String_Struct3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Map_Int_Struct4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Map_Int_Struct5s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map_String_Struct6s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[]Struct8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>map[string]Struct9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map[string][]Struct6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -512,18 +491,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>map[string]struct3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>map[int]struct4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>map[int][]struct5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>map[int][][]struct5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1253,6 +1224,142 @@
   </si>
   <si>
     <t>1=[[1,2],[11,21]],2=[[2,3],[21,31]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map[float32]struct3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_Float32_Struct3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map[bool]struct3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_Bool_Struct3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map[float32][]struct5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_Float32_Struct5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_Float32_Struct5ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map[bool][]struct5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_Bool_Struct5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map[int16][]struct5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_Int16_Struct5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map[float32][][]struct5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map[bool][][]struct5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_Bool_Struct5ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map[string][][]struct5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_String_Struct5ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1=1,2.2=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true=1,false=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str1=[1,2],str2=[3,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1=[1,2],2.2=[3,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=[1,2],0=[3,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1=[[1,2],[1,2]],2.2=[[3,4],[3,4]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=[[1,2],[1,2]],false=[[3,4],[3,4]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str1=[[1,2],[1,2]],str2=[[3,4],[3,4]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa=a,bb=b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa=c,bb=d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_String_Struct6s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map[string][]Struct6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map[string]Struct6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map_String_Struct6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,,,,2,,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,,,2],[,,3,4,,],[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1671,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1734,10 +1841,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1745,7 +1852,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1753,7 +1860,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1761,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1769,7 +1876,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1777,7 +1884,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1785,7 +1892,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1793,7 +1900,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1801,7 +1908,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1809,12 +1916,12 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1825,7 +1932,7 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1846,12 +1953,12 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="81">
       <c r="A34" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1891,76 +1998,76 @@
   <sheetData>
     <row r="1" spans="1:24" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1">
@@ -2039,7 +2146,7 @@
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
@@ -2418,7 +2525,7 @@
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2444,81 +2551,81 @@
   <sheetData>
     <row r="1" spans="1:24" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2592,10 +2699,10 @@
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2666,7 +2773,7 @@
     </row>
     <row r="4" spans="1:24" s="4" customFormat="1">
       <c r="A4" s="6" t="s">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="B4" s="4">
         <v>8</v>
@@ -2740,7 +2847,7 @@
     </row>
     <row r="5" spans="1:24" s="4" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="B5" s="4">
         <v>8</v>
@@ -2814,7 +2921,7 @@
     </row>
     <row r="6" spans="1:24" s="4" customFormat="1">
       <c r="A6" s="6" t="s">
-        <v>85</v>
+        <v>334</v>
       </c>
       <c r="B6" s="4">
         <v>8</v>
@@ -2888,7 +2995,7 @@
     </row>
     <row r="7" spans="1:24" s="4" customFormat="1">
       <c r="A7" s="6" t="s">
-        <v>86</v>
+        <v>335</v>
       </c>
       <c r="B7" s="4">
         <v>8</v>
@@ -2968,10 +3075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CH5"/>
+  <dimension ref="A1:CO5"/>
   <sheetViews>
-    <sheetView topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BC5" sqref="BC5"/>
+    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
+      <selection activeCell="CG4" sqref="CG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2996,273 +3103,294 @@
     <col min="65" max="67" width="17.25" style="3" customWidth="1"/>
     <col min="68" max="76" width="16.125" style="3" bestFit="1" customWidth="1"/>
     <col min="77" max="80" width="12.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="19.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="83" max="85" width="18.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="86" max="16384" width="9" style="3"/>
+    <col min="81" max="83" width="19.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="85" max="92" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="93" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="7" customFormat="1">
+    <row r="1" spans="1:93" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AF1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AI1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AK1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AL1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AM1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AN1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AO1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AP1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AQ1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AR1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AS1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AT1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AU1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AV1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AW1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AX1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AY1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AZ1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BA1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BB1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BC1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BD1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BE1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BF1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BG1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BH1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BI1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BJ1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BK1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BL1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BM1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BN1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BO1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BP1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BQ1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BR1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BS1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BT1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BU1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BV1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BW1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BX1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BY1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BZ1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="CA1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="CB1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="CC1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="CD1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="CE1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="CF1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="CG1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="CH1" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:86" s="1" customFormat="1">
+        <v>98</v>
+      </c>
+      <c r="CI1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CJ1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CM1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="CO1" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
@@ -3297,64 +3425,64 @@
         <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>55</v>
@@ -3363,168 +3491,189 @@
         <v>74</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="BB2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="BE2" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="BG2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="BV2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BH2" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="BW2" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>131</v>
+        <v>340</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>132</v>
+        <v>310</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>133</v>
+        <v>312</v>
       </c>
       <c r="CF2" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>97</v>
+        <v>339</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:86" s="2" customFormat="1">
+        <v>314</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93" s="2" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
@@ -3557,64 +3706,64 @@
         <v>39</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>56</v>
@@ -3623,174 +3772,195 @@
         <v>75</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AM3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC3" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AN3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="BD3" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="BE3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="BH3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BL3" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="BI3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="BM3" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="BN3" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="BP3" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="BQ3" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BR3" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BS3" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="BT3" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="BU3" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="BV3" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="BW3" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="BX3" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="BY3" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="BZ3" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="CA3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CB3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="CC3" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CE3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="CF3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CB3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="CD3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CE3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CF3" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="CG3" s="2" t="s">
-        <v>94</v>
+        <v>338</v>
       </c>
       <c r="CH3" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:86" s="4" customFormat="1">
+        <v>315</v>
+      </c>
+      <c r="CI3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="CJ3" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="CK3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL3" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="CM3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="CN3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="CO3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93" s="4" customFormat="1">
       <c r="A4" s="6" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D4" s="4">
         <v>32</v>
@@ -3811,202 +3981,202 @@
         <v>66</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>70</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>78</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>50</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AC4" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF4" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AD4" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>312</v>
-      </c>
       <c r="AG4" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AR4" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AS4" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AI4" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AT4" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="AK4" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="AP4" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>296</v>
-      </c>
       <c r="AU4" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AV4" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AX4" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AY4" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AZ4" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BA4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="BB4" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="BC4" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="BD4" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="BE4" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="BF4" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="BG4" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="BH4" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="BI4" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="BJ4" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="BK4" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="BL4" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BM4" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="BN4" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="BO4" s="4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BP4" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="BQ4" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="BR4" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="BS4" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="BT4" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="BU4" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="BV4" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="BW4" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="BX4" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="BY4" s="5" t="s">
         <v>80</v>
@@ -4015,33 +4185,54 @@
         <v>83</v>
       </c>
       <c r="CA4" s="4" t="s">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="CB4" s="4" t="s">
-        <v>123</v>
+        <v>343</v>
       </c>
       <c r="CC4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD4" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="CE4" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="CF4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CD4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="CE4" s="4" t="s">
+      <c r="CG4" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="CH4" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="CI4" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="CJ4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CF4" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="CG4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="CH4" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:86" s="4" customFormat="1">
+      <c r="CK4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL4" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="CM4" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="CN4" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="CO4" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93" s="4" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B5" s="4">
         <v>8</v>
@@ -4074,199 +4265,199 @@
         <v>67</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>68</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>69</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>70</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>78</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>50</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="W5" s="4" t="s">
         <v>51</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>52</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AA5" s="4" t="s">
         <v>53</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AC5" s="4" t="s">
         <v>54</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AF5" s="4" t="s">
         <v>65</v>
       </c>
       <c r="AG5" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AK5" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AL5" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AM5" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AO5" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AP5" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AR5" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AS5" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AT5" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AU5" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AV5" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AX5" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AY5" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="AZ5" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="BA5" s="4" t="s">
         <v>54</v>
       </c>
       <c r="BB5" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="BC5" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="BD5" s="4" t="s">
         <v>65</v>
       </c>
       <c r="BE5" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="BF5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="BG5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="BH5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BJ5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK5" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="BG5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BH5" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BI5" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="BJ5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="BK5" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="BL5" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BM5" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="BN5" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="BO5" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="BP5" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="BQ5" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BR5" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="BS5" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="BT5" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="BU5" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="BV5" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="BW5" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="BX5" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="BY5" s="5" t="s">
         <v>79</v>
@@ -4278,25 +4469,43 @@
         <v>81</v>
       </c>
       <c r="CB5" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CC5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE5" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="CF5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CD5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="CE5" s="4" t="s">
+      <c r="CG5" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="CH5" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="CI5" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="CJ5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CF5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="CG5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="CH5" s="4" t="s">
-        <v>139</v>
+      <c r="CK5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="CL5" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="CM5" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="CN5" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="CO5" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4310,7 +4519,7 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4336,76 +4545,76 @@
   <sheetData>
     <row r="1" spans="1:24" s="9" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="11" customFormat="1">
@@ -4484,7 +4693,7 @@
     </row>
     <row r="3" spans="1:24" s="12" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>30</v>
@@ -4741,76 +4950,76 @@
   <sheetData>
     <row r="1" spans="1:24" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1">
@@ -4889,7 +5098,7 @@
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
@@ -5185,7 +5394,7 @@
     </row>
     <row r="7" spans="1:24" s="4" customFormat="1">
       <c r="A7" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B7" s="4">
         <v>8</v>
@@ -5294,76 +5503,76 @@
   <sheetData>
     <row r="1" spans="1:24" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1">
@@ -5442,7 +5651,7 @@
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
@@ -5698,76 +5907,76 @@
   <sheetData>
     <row r="1" spans="1:24" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1">
@@ -5846,7 +6055,7 @@
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
@@ -6103,76 +6312,76 @@
   <sheetData>
     <row r="1" spans="1:24" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1">
@@ -6251,7 +6460,7 @@
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
@@ -6629,8 +6838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4:AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6658,85 +6867,85 @@
   <sheetData>
     <row r="1" spans="1:27" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="1" customFormat="1">
@@ -6813,18 +7022,18 @@
         <v>71</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="2" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
@@ -6896,13 +7105,13 @@
         <v>72</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="4" customFormat="1">
@@ -6985,7 +7194,7 @@
         <v>81</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>88</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="4" customFormat="1">
@@ -7068,7 +7277,7 @@
         <v>81</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>88</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:27" s="4" customFormat="1">
@@ -7151,7 +7360,7 @@
         <v>81</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>88</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="4" customFormat="1">
@@ -7234,7 +7443,7 @@
         <v>81</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>88</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -7247,8 +7456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7274,76 +7483,76 @@
   <sheetData>
     <row r="1" spans="1:24" s="8" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1">
@@ -7422,7 +7631,7 @@
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
